--- a/medicine/Sexualité et sexologie/Fou_d'amour_(film,_2015)/Fou_d'amour_(film,_2015).xlsx
+++ b/medicine/Sexualité et sexologie/Fou_d'amour_(film,_2015)/Fou_d'amour_(film,_2015).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fou_d%27amour_(film,_2015)</t>
+          <t>Fou_d'amour_(film,_2015)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fou d'amour est un film français réalisé par Philippe Ramos, sorti en 2015.
-Il est librement inspiré d'un fait divers français qui a marqué les années 1950, l'affaire du curé d'Uruffe, comme l'était un des courts métrages de Ramos, Ici-bas (1996), dont ce long métrage est l'adaptation[1].
+Il est librement inspiré d'un fait divers français qui a marqué les années 1950, l'affaire du curé d'Uruffe, comme l'était un des courts métrages de Ramos, Ici-bas (1996), dont ce long métrage est l'adaptation.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fou_d%27amour_(film,_2015)</t>
+          <t>Fou_d'amour_(film,_2015)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1959, un homme, coupable d’un double meurtre, est guillotiné. Au fond du panier qui vient de l’accueillir, la tête du mort raconte ce qui l'a conduit à la peine de mort. Curé admiré, il avait eu plusieurs maîtresses dans la paroisse rurale dont il avait la charge.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fou_d%27amour_(film,_2015)</t>
+          <t>Fou_d'amour_(film,_2015)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Réalisation : Philippe Ramos
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fou_d%27amour_(film,_2015)</t>
+          <t>Fou_d'amour_(film,_2015)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Melvil Poupaud : le curé
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fou_d%27amour_(film,_2015)</t>
+          <t>Fou_d'amour_(film,_2015)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +648,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Festival des films du monde de Montréal 2015 : Grand prix des Amériques</t>
         </is>
